--- a/data/trans_orig/P57C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Edad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8811</v>
+        <v>7437</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004053985435155714</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02160613002240321</v>
+        <v>0.01823682922123351</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21294</v>
+        <v>21070</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01617544725922274</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05901874623604637</v>
+        <v>0.05839719717370036</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>7489</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1660</v>
+        <v>1671</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23039</v>
+        <v>23976</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009744129094101826</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002159764700758561</v>
+        <v>0.002174160785889871</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02997502054205332</v>
+        <v>0.03119417409839572</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7276</v>
+        <v>8095</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003477736354994963</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01784271223185697</v>
+        <v>0.01985154441703015</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -833,19 +833,19 @@
         <v>11493</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4509</v>
+        <v>4103</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26431</v>
+        <v>25424</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03185509249729653</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01249662852048086</v>
+        <v>0.01137183472309163</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07325626201915571</v>
+        <v>0.0704666795669119</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -854,19 +854,19 @@
         <v>12911</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5415</v>
+        <v>5708</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27664</v>
+        <v>26797</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01679883866545833</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007045579883987964</v>
+        <v>0.007426006911206448</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03599359263711397</v>
+        <v>0.03486457775290647</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>30587</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18045</v>
+        <v>17332</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51688</v>
+        <v>51010</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07500511398523969</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04425089113179521</v>
+        <v>0.04250114227661549</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1267515778098048</v>
+        <v>0.125087942788856</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -904,19 +904,19 @@
         <v>43538</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28992</v>
+        <v>29491</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>61548</v>
+        <v>62717</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1206727043192351</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08035549894895898</v>
+        <v>0.08173880097734317</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1705883478559186</v>
+        <v>0.1738279565585102</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>40</v>
@@ -925,19 +925,19 @@
         <v>74125</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>53387</v>
+        <v>53499</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>100924</v>
+        <v>96925</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09644272219866433</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06946085802111639</v>
+        <v>0.06960624678130924</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1313100658813934</v>
+        <v>0.1261069671131302</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>143418</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>112579</v>
+        <v>111813</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>175084</v>
+        <v>173245</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3516933883789743</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2760694031473042</v>
+        <v>0.2741914184031962</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4293441490527718</v>
+        <v>0.4248356522251019</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -975,19 +975,19 @@
         <v>135329</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110153</v>
+        <v>110980</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>162684</v>
+        <v>159914</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.37508394915648</v>
+        <v>0.3750839491564801</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3053039974504821</v>
+        <v>0.3075969442892373</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4509029037091121</v>
+        <v>0.4432249650768392</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -996,19 +996,19 @@
         <v>278748</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>239724</v>
+        <v>238717</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>317534</v>
+        <v>316825</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3626735533969474</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3119000490587525</v>
+        <v>0.3105901463802025</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4131376766832913</v>
+        <v>0.4122156221190856</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>230717</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>196305</v>
+        <v>199917</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>261401</v>
+        <v>264627</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5657697758456356</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4813843411459523</v>
+        <v>0.4902418918005535</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6410130435846861</v>
+        <v>0.6489238797303255</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>95</v>
@@ -1046,19 +1046,19 @@
         <v>164600</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>140168</v>
+        <v>139347</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>191989</v>
+        <v>190324</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4562128067677655</v>
+        <v>0.4562128067677657</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.388495217707619</v>
+        <v>0.3862186088994931</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5321238828793232</v>
+        <v>0.5275101212930259</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>191</v>
@@ -1067,19 +1067,19 @@
         <v>395318</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>355541</v>
+        <v>357812</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>440519</v>
+        <v>437423</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.514340756644828</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4625875278898506</v>
+        <v>0.4655429860314201</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.573151204587671</v>
+        <v>0.5691236376201737</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>6727</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2477</v>
+        <v>2369</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15482</v>
+        <v>15762</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01410543660705165</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005193715348757024</v>
+        <v>0.004968348502920029</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03246374014146193</v>
+        <v>0.03305122298609432</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1192,19 +1192,19 @@
         <v>6554</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2736</v>
+        <v>2653</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13988</v>
+        <v>14716</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01307997935423142</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005460801778964052</v>
+        <v>0.005294406767270946</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02791611974794017</v>
+        <v>0.02936936030349307</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1213,19 +1213,19 @@
         <v>13281</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6857</v>
+        <v>7248</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22911</v>
+        <v>24772</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01358002424665226</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007011522075641955</v>
+        <v>0.007411556725107185</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02342703867159684</v>
+        <v>0.02533038346251924</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>13163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5780</v>
+        <v>6024</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25757</v>
+        <v>25150</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.0276010773834644</v>
+        <v>0.02760107738346441</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0121194670471916</v>
+        <v>0.01263142984560073</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05401082727745411</v>
+        <v>0.05273706360700726</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1263,19 +1263,19 @@
         <v>15966</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9188</v>
+        <v>8992</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26806</v>
+        <v>25541</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.03186206498386842</v>
+        <v>0.03186206498386841</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01833536127585967</v>
+        <v>0.01794516175341767</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05349629623347783</v>
+        <v>0.05097168782598647</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -1284,19 +1284,19 @@
         <v>29128</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18910</v>
+        <v>19594</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>43087</v>
+        <v>45802</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.02978427472943243</v>
+        <v>0.02978427472943242</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01933560330212366</v>
+        <v>0.02003551096950826</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04405777456577115</v>
+        <v>0.0468340405611021</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>38871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25504</v>
+        <v>26110</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>57533</v>
+        <v>55317</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08150842324042495</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05348019426448454</v>
+        <v>0.05475100888578501</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1206429016445728</v>
+        <v>0.1159946767779053</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -1334,19 +1334,19 @@
         <v>47358</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>35589</v>
+        <v>34705</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>62688</v>
+        <v>62802</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09451069476323498</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0710245644504891</v>
+        <v>0.06925924214300488</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1251044355018804</v>
+        <v>0.1253325980619245</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>68</v>
@@ -1355,19 +1355,19 @@
         <v>86228</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>67645</v>
+        <v>66511</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>110204</v>
+        <v>108237</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08817038223731642</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06916809223428723</v>
+        <v>0.06800946127984085</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1126859999882603</v>
+        <v>0.1106747762175069</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>211741</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>184025</v>
+        <v>186243</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>243193</v>
+        <v>239234</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4440041361117368</v>
+        <v>0.4440041361117369</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3858858291006243</v>
+        <v>0.3905373552724328</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5099552242522374</v>
+        <v>0.5016539041137078</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>221</v>
@@ -1405,19 +1405,19 @@
         <v>235913</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>213024</v>
+        <v>213845</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>260032</v>
+        <v>262393</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4708065964373796</v>
+        <v>0.4708065964373797</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.425127221725778</v>
+        <v>0.4267657838414629</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.51893978024615</v>
+        <v>0.5236526707571004</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>362</v>
@@ -1426,19 +1426,19 @@
         <v>447654</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>413035</v>
+        <v>413595</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>484285</v>
+        <v>484573</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.457736882070164</v>
+        <v>0.4577368820701641</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4223378463129085</v>
+        <v>0.4229099856228933</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4951927356529044</v>
+        <v>0.4954875815651456</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>206389</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>177815</v>
+        <v>176396</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>236363</v>
+        <v>232730</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4327809266573221</v>
+        <v>0.4327809266573222</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3728642522891619</v>
+        <v>0.3698890977783787</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4956339144036248</v>
+        <v>0.4880166302447148</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>177</v>
@@ -1476,19 +1476,19 @@
         <v>195292</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>170682</v>
+        <v>170252</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>218685</v>
+        <v>218458</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3897406644612855</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3406269369904437</v>
+        <v>0.3397671871018386</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4364254085141298</v>
+        <v>0.4359726220270215</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>299</v>
@@ -1497,19 +1497,19 @@
         <v>401681</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>366116</v>
+        <v>365930</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>438978</v>
+        <v>438564</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4107284367164348</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3743619445343606</v>
+        <v>0.3741715323849072</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.448865383545581</v>
+        <v>0.4484418964474977</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>13035</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6935</v>
+        <v>5832</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23509</v>
+        <v>22403</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02099663479911908</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01117095599194605</v>
+        <v>0.009393263910097637</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03786715623082899</v>
+        <v>0.03608456389295422</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1622,19 +1622,19 @@
         <v>4039</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1470</v>
+        <v>1428</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9114</v>
+        <v>8654</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.006506677663497469</v>
+        <v>0.006506677663497468</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002367492771189982</v>
+        <v>0.002300809899765205</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01468239772134829</v>
+        <v>0.01394140478354661</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1643,19 +1643,19 @@
         <v>17074</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10451</v>
+        <v>9828</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28154</v>
+        <v>29046</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0137522843866996</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008417620548404298</v>
+        <v>0.00791582596357294</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02267607220975742</v>
+        <v>0.02339498720827492</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>22372</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14525</v>
+        <v>14338</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33253</v>
+        <v>33364</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03603522911961227</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02339556131221593</v>
+        <v>0.02309511992678433</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05356085367215937</v>
+        <v>0.05374110973076322</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -1693,19 +1693,19 @@
         <v>23016</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15820</v>
+        <v>15610</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31561</v>
+        <v>31005</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.03707973114021384</v>
+        <v>0.03707973114021383</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02548546244412433</v>
+        <v>0.02514711231226399</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05084472988145036</v>
+        <v>0.04994974755907389</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -1714,19 +1714,19 @@
         <v>45388</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33923</v>
+        <v>33620</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59699</v>
+        <v>59293</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03655743484961517</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02732292010402059</v>
+        <v>0.02707887535749492</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04808327436617806</v>
+        <v>0.0477563946996068</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>53281</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>39063</v>
+        <v>39749</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>68316</v>
+        <v>68503</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08582056315799567</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06291927459257678</v>
+        <v>0.06402450415443421</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1100379164070757</v>
+        <v>0.1103393582345634</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>83</v>
@@ -1764,19 +1764,19 @@
         <v>61382</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49006</v>
+        <v>49675</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74517</v>
+        <v>74434</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.09888745182933509</v>
+        <v>0.09888745182933507</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07894938273148851</v>
+        <v>0.08002742678456609</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1200469483745626</v>
+        <v>0.1199131016860836</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>131</v>
@@ -1785,19 +1785,19 @@
         <v>114663</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>99146</v>
+        <v>96572</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>137466</v>
+        <v>134739</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.09235344102983874</v>
+        <v>0.09235344102983876</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0798559079674824</v>
+        <v>0.07778201461194674</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1107196006595043</v>
+        <v>0.1085231270257943</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>264757</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>238703</v>
+        <v>239413</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>290405</v>
+        <v>290212</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4264510131293189</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3844854194697794</v>
+        <v>0.3856290768705011</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4677643671339705</v>
+        <v>0.4674522975791188</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>416</v>
@@ -1835,19 +1835,19 @@
         <v>294957</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>274795</v>
+        <v>273416</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>316572</v>
+        <v>316074</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4751780586597851</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4426969030303573</v>
+        <v>0.4404756086156861</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5100005619423289</v>
+        <v>0.5091982618813897</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>657</v>
@@ -1856,19 +1856,19 @@
         <v>559713</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>525737</v>
+        <v>523959</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>590978</v>
+        <v>594195</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4508124235241656</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4234464839003238</v>
+        <v>0.4220147670287237</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4759943363046293</v>
+        <v>0.4785854198989339</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>267392</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>237502</v>
+        <v>241754</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>291854</v>
+        <v>292651</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4306965597939542</v>
+        <v>0.4306965597939541</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3825517550113373</v>
+        <v>0.3894001317534526</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4700971574534812</v>
+        <v>0.4713817741310842</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>308</v>
@@ -1906,19 +1906,19 @@
         <v>237335</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>216744</v>
+        <v>216240</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>259374</v>
+        <v>257286</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3823480807071686</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3491767157340336</v>
+        <v>0.3483639510180404</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4178538468523663</v>
+        <v>0.4144898972792165</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>533</v>
@@ -1927,19 +1927,19 @@
         <v>504727</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>468575</v>
+        <v>471691</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>536618</v>
+        <v>540061</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.406524416209681</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.377406094012495</v>
+        <v>0.3799158898680251</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4322105638972671</v>
+        <v>0.43498358414543</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>19409</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11338</v>
+        <v>11923</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30311</v>
+        <v>31956</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02773914423360068</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01620491583407657</v>
+        <v>0.01703999462205256</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04332051877077359</v>
+        <v>0.0456725744677841</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -2052,19 +2052,19 @@
         <v>14497</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9219</v>
+        <v>8938</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21227</v>
+        <v>21303</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01970212988659871</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01252911763689373</v>
+        <v>0.01214774167756278</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02884957592681408</v>
+        <v>0.02895188846861818</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -2073,19 +2073,19 @@
         <v>33905</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24503</v>
+        <v>23554</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47417</v>
+        <v>47040</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02361955630791936</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01706966181521268</v>
+        <v>0.01640827359078884</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0330324212697201</v>
+        <v>0.03276937785176613</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>33571</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23335</v>
+        <v>24356</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>47266</v>
+        <v>46973</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04798062096457278</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03335056564961771</v>
+        <v>0.03481028950050969</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06755402852077888</v>
+        <v>0.06713428079751403</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>67</v>
@@ -2123,19 +2123,19 @@
         <v>43590</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>34451</v>
+        <v>34622</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>54245</v>
+        <v>54662</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05924195126082833</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04682197457291234</v>
+        <v>0.04705351197083146</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07372294705889841</v>
+        <v>0.07428994689628161</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>101</v>
@@ -2144,19 +2144,19 @@
         <v>77161</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>63028</v>
+        <v>63242</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>94603</v>
+        <v>93887</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05375291877475017</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04390765487005254</v>
+        <v>0.04405680178454077</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06590394408270858</v>
+        <v>0.06540481701692802</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>73404</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57892</v>
+        <v>57737</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>93150</v>
+        <v>90070</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.104910987688795</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08273995206213447</v>
+        <v>0.08251900972946435</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1331321590253563</v>
+        <v>0.1287293074485349</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>127</v>
@@ -2194,19 +2194,19 @@
         <v>83254</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>70499</v>
+        <v>69717</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>97591</v>
+        <v>97413</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1131494498696544</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09581439551389162</v>
+        <v>0.09475143375373922</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1326345038491244</v>
+        <v>0.1323915379443294</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>198</v>
@@ -2215,19 +2215,19 @@
         <v>156659</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>135800</v>
+        <v>136235</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>178899</v>
+        <v>178417</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1091338331213294</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0946028747438397</v>
+        <v>0.09490566882368973</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1246271885171172</v>
+        <v>0.1242911377094989</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>339586</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>310548</v>
+        <v>311357</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>368829</v>
+        <v>366529</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4853433185340981</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.443841183281435</v>
+        <v>0.4449965653432504</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.527137776750515</v>
+        <v>0.5238503963153035</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>564</v>
@@ -2265,19 +2265,19 @@
         <v>350422</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>327052</v>
+        <v>327565</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>369823</v>
+        <v>371416</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.476252689962654</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.444490373412415</v>
+        <v>0.4451877878544642</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5026199746026977</v>
+        <v>0.5047844248820974</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>898</v>
@@ -2286,19 +2286,19 @@
         <v>690009</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>656391</v>
+        <v>655843</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>724592</v>
+        <v>721665</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4806836722919903</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.457263942838199</v>
+        <v>0.4568826688725585</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.504775432724282</v>
+        <v>0.5027364140296628</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>233712</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>205150</v>
+        <v>207455</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>260513</v>
+        <v>261895</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3340259285789334</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2932041988241887</v>
+        <v>0.2964986667199583</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3723300781254665</v>
+        <v>0.3743049275811813</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>359</v>
@@ -2336,19 +2336,19 @@
         <v>244028</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>224662</v>
+        <v>225513</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>264871</v>
+        <v>265674</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3316537790202646</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3053339890250822</v>
+        <v>0.3064909608191724</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3599815664442781</v>
+        <v>0.3610723809275981</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>567</v>
@@ -2357,19 +2357,19 @@
         <v>477740</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>443995</v>
+        <v>445517</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>508552</v>
+        <v>508502</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3328100195040109</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3093018574424863</v>
+        <v>0.3103622312986876</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3542743664555672</v>
+        <v>0.3542400839809872</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>15672</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9048</v>
+        <v>9449</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24017</v>
+        <v>26333</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02576185273322045</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01487319018756033</v>
+        <v>0.01553236222732635</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03947862596431655</v>
+        <v>0.04328519926168347</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>33</v>
@@ -2482,19 +2482,19 @@
         <v>21322</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14924</v>
+        <v>14470</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>29019</v>
+        <v>29795</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.03517925776098949</v>
+        <v>0.03517925776098948</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02462321777270246</v>
+        <v>0.02387523017496074</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04787935222163309</v>
+        <v>0.04915988472230516</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>50</v>
@@ -2503,19 +2503,19 @@
         <v>36994</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>27736</v>
+        <v>27414</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>48709</v>
+        <v>48059</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03046174358281763</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02283823548127034</v>
+        <v>0.0225733289728525</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0401084398808727</v>
+        <v>0.03957319741881804</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>50256</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>39339</v>
+        <v>38025</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>64307</v>
+        <v>64711</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.08260966886566121</v>
+        <v>0.08260966886566119</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06466451590615437</v>
+        <v>0.06250489963952258</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.105704857026994</v>
+        <v>0.1063695549173299</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>81</v>
@@ -2553,19 +2553,19 @@
         <v>49403</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>40490</v>
+        <v>38880</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>61698</v>
+        <v>60867</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.0815123277890826</v>
+        <v>0.08151232778908259</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06680586186908893</v>
+        <v>0.06415001991358836</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1017975194184968</v>
+        <v>0.1004260598589229</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>138</v>
@@ -2574,19 +2574,19 @@
         <v>99660</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>83922</v>
+        <v>84179</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>116489</v>
+        <v>117287</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08206202508592661</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.069102923083627</v>
+        <v>0.06931514605609858</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09591982559312467</v>
+        <v>0.09657696616749682</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>92426</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>76346</v>
+        <v>78118</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>110394</v>
+        <v>112252</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1519263519697549</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1254942016149693</v>
+        <v>0.1284079497912267</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1814618243719243</v>
+        <v>0.1845168384000777</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>203</v>
@@ -2624,19 +2624,19 @@
         <v>126411</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>110936</v>
+        <v>110615</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>141544</v>
+        <v>141910</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2085696351027676</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1830372370096654</v>
+        <v>0.1825068041622566</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2335375830122079</v>
+        <v>0.2341421748012147</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>305</v>
@@ -2645,19 +2645,19 @@
         <v>218837</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>196660</v>
+        <v>196560</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>239887</v>
+        <v>241843</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.180194993628789</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1619344064338982</v>
+        <v>0.1618518469556152</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1975283537922936</v>
+        <v>0.1991384835237594</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>306848</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>284277</v>
+        <v>282157</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>332492</v>
+        <v>330519</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5043867314856126</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.467284817007748</v>
+        <v>0.4638001283405413</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5465385285306561</v>
+        <v>0.5432956218375398</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>469</v>
@@ -2695,19 +2695,19 @@
         <v>274337</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>257055</v>
+        <v>254891</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>294227</v>
+        <v>294597</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.4526365685457471</v>
+        <v>0.452636568545747</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4241229251575347</v>
+        <v>0.4205530391992509</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4854546938443298</v>
+        <v>0.4860651793520217</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>812</v>
@@ -2716,19 +2716,19 @@
         <v>581185</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>553014</v>
+        <v>551108</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>612232</v>
+        <v>610517</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4785600715353338</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4553634828227685</v>
+        <v>0.4537942319532151</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5041252073018384</v>
+        <v>0.502712539191289</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>143156</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>123596</v>
+        <v>122679</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>165279</v>
+        <v>165028</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2353153949457509</v>
+        <v>0.2353153949457508</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2031624929156887</v>
+        <v>0.2016556287722343</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2716803459665021</v>
+        <v>0.271267240666027</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>212</v>
@@ -2766,19 +2766,19 @@
         <v>134613</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>118780</v>
+        <v>119473</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>151318</v>
+        <v>152836</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2221022108014132</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1959785056036626</v>
+        <v>0.1971228278158557</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2496636376194505</v>
+        <v>0.2521686235174386</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>355</v>
@@ -2787,19 +2787,19 @@
         <v>277769</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>252185</v>
+        <v>251982</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>304492</v>
+        <v>304511</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.228721166167133</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2076547367725984</v>
+        <v>0.2074870311061721</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.250725218770929</v>
+        <v>0.2507410054287761</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>6612</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2857</v>
+        <v>3421</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>11188</v>
+        <v>12123</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01633380751410913</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.007058166140403753</v>
+        <v>0.008450954423446852</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02763954616030409</v>
+        <v>0.02994761005736781</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>21</v>
@@ -2912,19 +2912,19 @@
         <v>11188</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7026</v>
+        <v>7263</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16689</v>
+        <v>16558</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02554229277349569</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01604159157533122</v>
+        <v>0.01658071600815202</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03810230384147678</v>
+        <v>0.03780217128046397</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>31</v>
@@ -2933,19 +2933,19 @@
         <v>17800</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>12297</v>
+        <v>11900</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>24305</v>
+        <v>24711</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02111947909235729</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01458999354571823</v>
+        <v>0.01411998469180319</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02883779636797199</v>
+        <v>0.02931938398115636</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>25886</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>19459</v>
+        <v>19335</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>35300</v>
+        <v>35607</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.06394789544472082</v>
+        <v>0.06394789544472083</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04807048578677912</v>
+        <v>0.04776412587789403</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08720303315038178</v>
+        <v>0.0879621813691739</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>75</v>
@@ -2983,19 +2983,19 @@
         <v>39548</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>31578</v>
+        <v>31955</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>50081</v>
+        <v>49052</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.09029105837436217</v>
+        <v>0.09029105837436219</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07209352605965136</v>
+        <v>0.0729562620055328</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.114337917026621</v>
+        <v>0.1119877587264349</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>115</v>
@@ -3004,19 +3004,19 @@
         <v>65434</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>54957</v>
+        <v>53179</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>77130</v>
+        <v>76924</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07763849955195305</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06520657651955795</v>
+        <v>0.06309769534806882</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0915161665067078</v>
+        <v>0.09127083244227804</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>72040</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>59233</v>
+        <v>59239</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>85153</v>
+        <v>86065</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.1779645177329389</v>
+        <v>0.1779645177329388</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1463261796029439</v>
+        <v>0.1463419176832281</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2103588746069307</v>
+        <v>0.2126122297005031</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>166</v>
@@ -3054,19 +3054,19 @@
         <v>88089</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>76336</v>
+        <v>76053</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>100170</v>
+        <v>100231</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.201111688412389</v>
+        <v>0.2011116884123889</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1742797199667357</v>
+        <v>0.1736338824587272</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2286934671731741</v>
+        <v>0.2288328651235577</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>273</v>
@@ -3075,19 +3075,19 @@
         <v>160128</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>143361</v>
+        <v>143458</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>177433</v>
+        <v>180087</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1899941571054498</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1700989314470992</v>
+        <v>0.1702149169850139</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2105262794040158</v>
+        <v>0.213674886210379</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>201739</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>184360</v>
+        <v>185031</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>219340</v>
+        <v>219114</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4983686675805691</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4554359368742878</v>
+        <v>0.4570942380252968</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5418506706919634</v>
+        <v>0.5412913531351286</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>368</v>
@@ -3125,19 +3125,19 @@
         <v>191388</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>177035</v>
+        <v>177202</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>205649</v>
+        <v>206595</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.4369490064549099</v>
+        <v>0.4369490064549098</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4041817160713704</v>
+        <v>0.4045629975344843</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4695092113173476</v>
+        <v>0.471668153410689</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>647</v>
@@ -3146,19 +3146,19 @@
         <v>393126</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>371573</v>
+        <v>369517</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>416383</v>
+        <v>416959</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4664487243635149</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4408753782936382</v>
+        <v>0.4384356512545383</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4940427384003579</v>
+        <v>0.4947263865071542</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>98522</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>83434</v>
+        <v>83926</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>111856</v>
+        <v>113365</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.243385111727662</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2061123712379173</v>
+        <v>0.2073283116274866</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.276326267063065</v>
+        <v>0.2800534065414975</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>195</v>
@@ -3196,19 +3196,19 @@
         <v>107797</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>95470</v>
+        <v>93755</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>120579</v>
+        <v>120972</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2461059539848433</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2179628474670452</v>
+        <v>0.2140491739412756</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2752879347855431</v>
+        <v>0.2761852207465434</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>326</v>
@@ -3217,19 +3217,19 @@
         <v>206318</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>187404</v>
+        <v>188237</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>225930</v>
+        <v>227754</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.244799139886725</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2223563821232227</v>
+        <v>0.2233452208671896</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2680685867724201</v>
+        <v>0.270232831396957</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>9228</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5812</v>
+        <v>5772</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>13887</v>
+        <v>14084</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0298648058510889</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01881053370983635</v>
+        <v>0.01867944212394225</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04494301608745003</v>
+        <v>0.04558080319580963</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>64</v>
@@ -3342,19 +3342,19 @@
         <v>26596</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>20282</v>
+        <v>20251</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>33793</v>
+        <v>33882</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.05799054948506965</v>
+        <v>0.05799054948506963</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0442235312170105</v>
+        <v>0.04415591368855033</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07368077119170766</v>
+        <v>0.07387482617282742</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>84</v>
@@ -3363,19 +3363,19 @@
         <v>35824</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>28476</v>
+        <v>28764</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>44198</v>
+        <v>43460</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.04666908664284276</v>
+        <v>0.04666908664284277</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03709592859209297</v>
+        <v>0.03747190769316492</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05757718195395274</v>
+        <v>0.05661583946155316</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>27786</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>20453</v>
+        <v>20410</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>36626</v>
+        <v>37096</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.08992589113428777</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0661916763448797</v>
+        <v>0.06605276967513242</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1185348894082625</v>
+        <v>0.1200542191662606</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>131</v>
@@ -3413,19 +3413,19 @@
         <v>68891</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>58420</v>
+        <v>59095</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>81004</v>
+        <v>81427</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1502095863256103</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1273787849945777</v>
+        <v>0.1288510094715612</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.176620243348459</v>
+        <v>0.1775418465691506</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>179</v>
@@ -3434,19 +3434,19 @@
         <v>96678</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>83740</v>
+        <v>83306</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>110483</v>
+        <v>111148</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1259435749453418</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1090899100164372</v>
+        <v>0.1085234714412616</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1439271600689041</v>
+        <v>0.1447939928722824</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>81904</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>69119</v>
+        <v>70380</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>95909</v>
+        <v>96165</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2650687308103697</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2236896114123983</v>
+        <v>0.2277723858499728</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3103923290403445</v>
+        <v>0.3112208870054254</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>248</v>
@@ -3484,19 +3484,19 @@
         <v>127945</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>114051</v>
+        <v>113910</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>141875</v>
+        <v>141634</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.2789691940589471</v>
+        <v>0.278969194058947</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2486759269615479</v>
+        <v>0.2483683464385424</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3093423080768148</v>
+        <v>0.3088181066148434</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>374</v>
@@ -3505,19 +3505,19 @@
         <v>209849</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>191901</v>
+        <v>193387</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>226584</v>
+        <v>229413</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.2733738370007829</v>
+        <v>0.273373837000783</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.249991921215401</v>
+        <v>0.2519283348224497</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2951735753098738</v>
+        <v>0.2988597571319905</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>129196</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>114303</v>
+        <v>117083</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>143560</v>
+        <v>144253</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4181182538016575</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3699221319155003</v>
+        <v>0.3789189537320847</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4646067281714195</v>
+        <v>0.4668472377209766</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>317</v>
@@ -3555,19 +3555,19 @@
         <v>171598</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>156920</v>
+        <v>156202</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>186068</v>
+        <v>186602</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.374151066303832</v>
+        <v>0.3741510663038319</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3421460579844133</v>
+        <v>0.3405805176274708</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4057012097135525</v>
+        <v>0.4068639107254795</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>501</v>
@@ -3576,19 +3576,19 @@
         <v>300794</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>280040</v>
+        <v>280389</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>320136</v>
+        <v>321830</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3918491896321147</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3648121177917483</v>
+        <v>0.3652663144256627</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4170451340731789</v>
+        <v>0.4192524864029333</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>60879</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>48615</v>
+        <v>49345</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>71778</v>
+        <v>74140</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1970223184025961</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1573344949089348</v>
+        <v>0.1596946672024292</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2322981423292149</v>
+        <v>0.2399413977767926</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>112</v>
@@ -3626,19 +3626,19 @@
         <v>63603</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>53129</v>
+        <v>53113</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>75931</v>
+        <v>75206</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.1386796038265411</v>
+        <v>0.138679603826541</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1158409822123622</v>
+        <v>0.11580738990318</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1655600012263</v>
+        <v>0.1639792363328104</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>190</v>
@@ -3647,19 +3647,19 @@
         <v>124482</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>108741</v>
+        <v>108803</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>141021</v>
+        <v>141598</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1621643117789178</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1416586872555566</v>
+        <v>0.141739649267941</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1837106472862083</v>
+        <v>0.1844611815193489</v>
       </c>
     </row>
     <row r="45">
@@ -3751,19 +3751,19 @@
         <v>72336</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>56372</v>
+        <v>56188</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>91411</v>
+        <v>90453</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02050727135559764</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01598148284204968</v>
+        <v>0.01592931286182438</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.0259147761920572</v>
+        <v>0.02564327956102475</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>153</v>
@@ -3772,19 +3772,19 @@
         <v>90032</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>75886</v>
+        <v>76862</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>109315</v>
+        <v>109663</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02419470086168905</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02039337434595833</v>
+        <v>0.02065557855445676</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02937678458034629</v>
+        <v>0.02947043509447377</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>234</v>
@@ -3793,19 +3793,19 @@
         <v>162368</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>139381</v>
+        <v>140496</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>186951</v>
+        <v>187414</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02240027465368698</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0192290338956017</v>
+        <v>0.01938284247682797</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02579170923085428</v>
+        <v>0.02585565622358517</v>
       </c>
     </row>
     <row r="47">
@@ -3822,19 +3822,19 @@
         <v>174453</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>150327</v>
+        <v>149940</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>200861</v>
+        <v>201660</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04945716939856679</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.04261763708145992</v>
+        <v>0.04250781661646494</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.05694376329905727</v>
+        <v>0.05717044974537643</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>406</v>
@@ -3843,19 +3843,19 @@
         <v>251908</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>227060</v>
+        <v>226516</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>280958</v>
+        <v>280571</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.06769664338014497</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.06101898733836493</v>
+        <v>0.0608728922033515</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0755033928868598</v>
+        <v>0.07539930933574421</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>615</v>
@@ -3864,19 +3864,19 @@
         <v>426361</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>393805</v>
+        <v>391548</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>465395</v>
+        <v>465659</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.05882070688328483</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.05432930528124727</v>
+        <v>0.05401793831206385</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.06420584495354166</v>
+        <v>0.06424222003447892</v>
       </c>
     </row>
     <row r="48">
@@ -3893,19 +3893,19 @@
         <v>442512</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>402492</v>
+        <v>404490</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>480319</v>
+        <v>480577</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1254515817034188</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1141058826997634</v>
+        <v>0.1146722952826898</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1361697782480545</v>
+        <v>0.1362429388920702</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>895</v>
@@ -3914,19 +3914,19 @@
         <v>577978</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>537388</v>
+        <v>543666</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>615503</v>
+        <v>618578</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1553231252008658</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.144415248794757</v>
+        <v>0.146102438565805</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1654075218207767</v>
+        <v>0.1662338608054157</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1389</v>
@@ -3935,19 +3935,19 @@
         <v>1020490</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>967006</v>
+        <v>969647</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1072649</v>
+        <v>1078381</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1407866356390328</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1334079779149192</v>
+        <v>0.1337724074166155</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1479824987417615</v>
+        <v>0.1487733264796227</v>
       </c>
     </row>
     <row r="49">
@@ -3964,19 +3964,19 @@
         <v>1597285</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1531140</v>
+        <v>1535966</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1661490</v>
+        <v>1665028</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4528281405826163</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4340759855394531</v>
+        <v>0.4354443829463122</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4710302334529722</v>
+        <v>0.4720330781072427</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>2432</v>
@@ -3985,19 +3985,19 @@
         <v>1653945</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1602056</v>
+        <v>1602070</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1711186</v>
+        <v>1705942</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.4444737656551407</v>
+        <v>0.4444737656551408</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.4305295023060929</v>
+        <v>0.4305331938547898</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.459856669520107</v>
+        <v>0.4584472439319354</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>4014</v>
@@ -4006,19 +4006,19 @@
         <v>3251230</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>3167868</v>
+        <v>3164293</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>3334903</v>
+        <v>3329053</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.4485392831915635</v>
+        <v>0.4485392831915636</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.4370387106920258</v>
+        <v>0.4365454440794634</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.460082817380737</v>
+        <v>0.4592757341632313</v>
       </c>
     </row>
     <row r="50">
@@ -4035,19 +4035,19 @@
         <v>1240767</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1172042</v>
+        <v>1177753</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1302162</v>
+        <v>1309673</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3517558369598005</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3322723742670162</v>
+        <v>0.3338912523970787</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3691610905217382</v>
+        <v>0.3712905658429888</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1458</v>
@@ -4056,19 +4056,19 @@
         <v>1147268</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1094959</v>
+        <v>1099062</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1199004</v>
+        <v>1197368</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3083117649021594</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2942545034489749</v>
+        <v>0.2953569806094108</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3222149973012177</v>
+        <v>0.3217753898075248</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>2461</v>
@@ -4077,19 +4077,19 @@
         <v>2388036</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2310937</v>
+        <v>2309125</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2469965</v>
+        <v>2483391</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.3294530996324318</v>
+        <v>0.3294530996324317</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.318816557568889</v>
+        <v>0.3185666122896412</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.340756070837472</v>
+        <v>0.3426083605032819</v>
       </c>
     </row>
     <row r="51">
